--- a/lesson20/multiple_sheets.xlsx
+++ b/lesson20/multiple_sheets.xlsx
@@ -453,16 +453,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.4744085450364792</v>
+        <v>0.7012568686446788</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3317131092521529</v>
+        <v>0.05906421499587033</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6424979453297758</v>
+        <v>0.6028735214470679</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5323588508562439</v>
+        <v>0.08205487634263697</v>
       </c>
     </row>
     <row r="3">
@@ -470,16 +470,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.6482356919178704</v>
+        <v>0.9078185120149185</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9007963589590163</v>
+        <v>0.1782466952221061</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4489203687860118</v>
+        <v>0.140085993012115</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7241528189098557</v>
+        <v>0.4562970037417531</v>
       </c>
     </row>
     <row r="4">
@@ -487,16 +487,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.9293624168598821</v>
+        <v>0.2892327469065626</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2550613031468189</v>
+        <v>0.2426306226554217</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7719504982347241</v>
+        <v>0.7893995356773391</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4005627380353225</v>
+        <v>0.1989565571303447</v>
       </c>
     </row>
     <row r="5">
@@ -504,16 +504,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.03026319047901638</v>
+        <v>0.6046539977618868</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3050989238483739</v>
+        <v>0.4995322589907432</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3738532840671146</v>
+        <v>0.1142816063149554</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1992130872619491</v>
+        <v>0.6261284687607485</v>
       </c>
     </row>
   </sheetData>
@@ -563,25 +563,25 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.09915876523490763</v>
+        <v>0.7788281498026604</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8144257638345157</v>
+        <v>0.09285914816023877</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8699848228872188</v>
+        <v>0.03386859909292828</v>
       </c>
       <c r="E2" t="n">
-        <v>0.904315409589708</v>
+        <v>0.8108851935219965</v>
       </c>
       <c r="F2" t="n">
-        <v>0.4980861103872392</v>
+        <v>0.05275571688479785</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5661314208918226</v>
+        <v>0.7737088067159237</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1811310321009812</v>
+        <v>0.5931112569008254</v>
       </c>
     </row>
     <row r="3">
@@ -589,25 +589,25 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.1668749932187907</v>
+        <v>0.1224301939925959</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9954891919997697</v>
+        <v>0.8761782062937679</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8234411893571145</v>
+        <v>0.6883024186963517</v>
       </c>
       <c r="E3" t="n">
-        <v>0.02465460142561315</v>
+        <v>0.8796291428643253</v>
       </c>
       <c r="F3" t="n">
-        <v>0.4085279707641445</v>
+        <v>0.8332552308920611</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9466699658310423</v>
+        <v>0.4065723890784901</v>
       </c>
       <c r="H3" t="n">
-        <v>0.9754765134438936</v>
+        <v>0.8352870993876613</v>
       </c>
     </row>
     <row r="4">
@@ -615,25 +615,25 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.05119386942064352</v>
+        <v>0.05502248942952037</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4841849202450251</v>
+        <v>0.7804533148138134</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1835953982956858</v>
+        <v>0.7036699789239189</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1888166877533453</v>
+        <v>0.5801524651508346</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5476849314285146</v>
+        <v>0.7860400952624116</v>
       </c>
       <c r="G4" t="n">
-        <v>0.8739443669282879</v>
+        <v>0.90859212018487</v>
       </c>
       <c r="H4" t="n">
-        <v>0.8527455946844777</v>
+        <v>0.5105613485801331</v>
       </c>
     </row>
     <row r="5">
@@ -641,25 +641,25 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.521912018932544</v>
+        <v>0.6035593113044773</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3361359257450404</v>
+        <v>0.01646240048855441</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8126555230488299</v>
+        <v>0.07995895718032053</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5364521787037964</v>
+        <v>0.7573507370713396</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1392076520996962</v>
+        <v>0.73908578473376</v>
       </c>
       <c r="G5" t="n">
-        <v>0.05049481487245644</v>
+        <v>0.7989137762572217</v>
       </c>
       <c r="H5" t="n">
-        <v>0.7127708762876318</v>
+        <v>0.2897022302097809</v>
       </c>
     </row>
     <row r="6">
@@ -667,25 +667,25 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.2011201920772854</v>
+        <v>0.06938215253226343</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3864728354813646</v>
+        <v>0.7971172637523515</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9770506921396845</v>
+        <v>0.4019126907368517</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8019992406852843</v>
+        <v>0.4924329387100482</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9035230648102486</v>
+        <v>0.3798629695390637</v>
       </c>
       <c r="G6" t="n">
-        <v>0.3556409942880777</v>
+        <v>0.1874237944389343</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2716450999944762</v>
+        <v>0.64280775317921</v>
       </c>
     </row>
     <row r="7">
@@ -693,25 +693,25 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.9012054664791695</v>
+        <v>0.7021981415573206</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9000909625591996</v>
+        <v>0.4883439162981136</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6509882830908781</v>
+        <v>0.5526627743181168</v>
       </c>
       <c r="E7" t="n">
-        <v>0.07637460446803312</v>
+        <v>0.2442591783398836</v>
       </c>
       <c r="F7" t="n">
-        <v>0.4183772084037826</v>
+        <v>0.9687441389536604</v>
       </c>
       <c r="G7" t="n">
-        <v>0.452999863179251</v>
+        <v>0.8755030883201417</v>
       </c>
       <c r="H7" t="n">
-        <v>0.716367523536716</v>
+        <v>0.402722123961115</v>
       </c>
     </row>
     <row r="8">
@@ -719,25 +719,25 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.9121636122871037</v>
+        <v>0.6754119381956851</v>
       </c>
       <c r="C8" t="n">
-        <v>0.05487963144399688</v>
+        <v>0.6013040944075251</v>
       </c>
       <c r="D8" t="n">
-        <v>0.3675989175808957</v>
+        <v>0.8852129689056576</v>
       </c>
       <c r="E8" t="n">
-        <v>0.399397901073609</v>
+        <v>0.9300034886198366</v>
       </c>
       <c r="F8" t="n">
-        <v>0.6995367442481514</v>
+        <v>0.6665924670621576</v>
       </c>
       <c r="G8" t="n">
-        <v>0.7963382807369309</v>
+        <v>0.4845367960554841</v>
       </c>
       <c r="H8" t="n">
-        <v>0.3899203093967921</v>
+        <v>0.8081119782759706</v>
       </c>
     </row>
   </sheetData>
